--- a/Data/Motif stuff/biotinylatedMIRS.xlsx
+++ b/Data/Motif stuff/biotinylatedMIRS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Scrambled</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>miR-589-5p</t>
+  </si>
+  <si>
+    <t>UAACACUGUCUGGUAACGAUGU</t>
+  </si>
+  <si>
+    <t>UCAGUGCACUACAGAACUUUGU</t>
+  </si>
+  <si>
+    <t>UGUAAACAUCCUCGACUGGAAG</t>
+  </si>
+  <si>
+    <t>UGAGAACCACGUCUGCUCUGAG</t>
+  </si>
+  <si>
+    <t>AAUUGCACGGUAUCCAUCUGUA</t>
+  </si>
+  <si>
+    <t>miR name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>3' biotin</t>
   </si>
 </sst>
 </file>
@@ -362,48 +389,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
